--- a/share修改IP手册.xlsx
+++ b/share修改IP手册.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>修改文件1</t>
   </si>
@@ -43,7 +43,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>【home-&gt;www-&gt;im-&gt;js-&gt;app.</t>
     </r>
@@ -53,7 +52,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>XXXXX</t>
     </r>
@@ -63,7 +61,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.js】</t>
     </r>
@@ -78,7 +75,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>要修改的地方有</t>
     </r>
@@ -89,7 +85,6 @@
         <color theme="4"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -99,7 +94,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>处</t>
     </r>
@@ -114,7 +108,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ws://</t>
     </r>
@@ -125,7 +118,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>43.159.197.22</t>
     </r>
@@ -135,7 +127,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:8878/im→改成服务器宝塔IP（例如：ws://</t>
     </r>
@@ -146,7 +137,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>43.129.193.243</t>
     </r>
@@ -156,7 +146,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:8878/im）</t>
     </r>
@@ -177,7 +166,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>【home-&gt;www-&gt;h5-&gt;h5-&gt;assets-&gt;index-</t>
     </r>
@@ -188,7 +176,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>XXXXX</t>
     </r>
@@ -198,7 +185,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.js】</t>
     </r>
@@ -216,7 +202,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>http://</t>
     </r>
@@ -227,7 +212,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>43.132.126.240</t>
     </r>
@@ -237,7 +221,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:81/api→改成域名（例如：http://</t>
     </r>
@@ -248,7 +231,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>43.129.193.243</t>
     </r>
@@ -258,7 +240,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:81/api）</t>
     </r>
@@ -273,7 +254,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ws://</t>
     </r>
@@ -284,7 +264,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>43.132.126.240</t>
     </r>
@@ -294,7 +273,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:8878/im→改成服务器宝塔IP（例如：ws://</t>
     </r>
@@ -305,7 +283,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>43.129.193.243</t>
     </r>
@@ -315,7 +292,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:8878/im）</t>
     </r>
@@ -336,7 +312,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>修改【im-platform.jar\BOOT-INF\classes 】目录下的【application-prod.yml】文件。要修改的地方有</t>
     </r>
@@ -347,7 +322,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1处</t>
     </r>
@@ -360,7 +334,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>【im-platform.jar\BOOT-INF\classes\a</t>
     </r>
@@ -371,7 +344,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>pplication-prod.yml</t>
     </r>
@@ -382,7 +354,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>】</t>
     </r>
@@ -394,7 +365,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>http://</t>
     </r>
@@ -405,7 +375,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>43.132.126.240</t>
     </r>
@@ -415,7 +384,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:9090→改成域名（例如：</t>
     </r>
@@ -424,7 +392,6 @@
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>http://</t>
     </r>
@@ -435,7 +402,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>43.129.193.243</t>
     </r>
@@ -444,7 +410,6 @@
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>:9090</t>
     </r>
@@ -454,7 +419,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>）</t>
     </r>
@@ -487,7 +451,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">kill -9 </t>
     </r>
@@ -497,7 +460,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>11099</t>
     </r>
@@ -530,85 +492,12 @@
     <t>nohup java -jar im-server.jar  --spring.profiles.active=prod &amp;</t>
   </si>
   <si>
-    <t>修改文件4</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>【home-&gt;www-&gt;h6-&gt;static-&gt;js-&gt;pages-login-login.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>XXXXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.js】</t>
-    </r>
-  </si>
-  <si>
-    <t>XXXX不同时间点打包的程序，可能不一样。认准pages-login-login.开头的js文件</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>要修改的地方有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="4"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>处</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>http://</t>
     </r>
@@ -619,7 +508,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>43.159.197.22</t>
     </r>
@@ -629,7 +517,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>→改成新的服务器宝塔IP（例如：http://</t>
     </r>
@@ -640,7 +527,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>43.129.193.243</t>
     </r>
@@ -650,7 +536,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>）</t>
     </r>
@@ -671,7 +556,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>删除坏掉的域名时，新的有效域名状态一定要【</t>
     </r>
@@ -682,7 +566,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>正常</t>
     </r>
@@ -692,9 +575,47 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+  </si>
+  <si>
+    <t>修改文件</t>
+  </si>
+  <si>
+    <t>【home-&gt;www-&gt;h6-&gt;static-&gt;js-&gt;pages-login-login.XXXXX.js】</t>
+  </si>
+  <si>
+    <t>XXXX不同时间点打包的程序，可能不一样。认准pages-login-login.开头的js文件</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>】</t>
+      <t>要修改的地方有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处</t>
     </r>
   </si>
   <si>
@@ -713,7 +634,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>http://</t>
     </r>
@@ -724,7 +644,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>hg28.exqog.cn</t>
     </r>
@@ -734,7 +653,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>→改成新授权域名（例如：http://</t>
     </r>
@@ -745,7 +663,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>hg39.exqog.cn</t>
     </r>
@@ -755,13 +672,12 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>）</t>
     </r>
   </si>
   <si>
-    <t>2.登录公众号后台配置【业务域名，JS接口安全域名，网页授权域名】</t>
+    <t>2.登录公众号后台配置【网页授权域名】</t>
   </si>
   <si>
     <r>
@@ -771,7 +687,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>hg28.exqog.cn</t>
     </r>
@@ -781,7 +696,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>→改成新授权域名（例如：</t>
     </r>
@@ -792,7 +706,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>hg39.exqog.cn</t>
     </r>
@@ -802,7 +715,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>）</t>
     </r>
@@ -814,7 +726,7 @@
     <t>修改后保存</t>
   </si>
   <si>
-    <t>1.登录公众号后台配置【业务域名，JS接口安全域名，网页授权域名】</t>
+    <t>1.登录公众号后台配置【网页授权域名】</t>
   </si>
   <si>
     <t>2.拷贝基本配置的Appid和AppSecret</t>
@@ -829,7 +741,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>appid=</t>
     </r>
@@ -840,7 +751,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>wx5c39c26d383d4b93</t>
     </r>
@@ -850,7 +760,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>→改成新的AppId域名（例如：appid=</t>
     </r>
@@ -861,7 +770,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>wx5c39c26d383d4b93</t>
     </r>
@@ -871,7 +779,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>）</t>
     </r>
@@ -880,7 +787,7 @@
     <t>更换新的公众号时要替换下宝塔的识别公众号文件，操作如下</t>
   </si>
   <si>
-    <t>1.点击业务域名的设置，将里面的文件下载下来,之后打开宝塔</t>
+    <t>1.点击授权域名的设置，将里面的文件下载下来,之后打开宝塔</t>
   </si>
   <si>
     <t>2.根据文件路径找到该文件，将该文件删除，并将刚下载的文件上传，之后打开宝塔的软件商店找到Nginx</t>
@@ -905,7 +812,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,18 +994,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1557,26 +1494,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1585,16 +1516,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3961,248 +3901,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>317</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="55031640"/>
-          <a:ext cx="9311640" cy="3177540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>311</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>344805</xdr:colOff>
-      <xdr:row>312</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="327660" y="57073800"/>
-          <a:ext cx="2455545" cy="320675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>319</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>355</xdr:row>
-      <xdr:rowOff>123190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="58582560"/>
-          <a:ext cx="14631670" cy="6706870"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4499,6 +4197,90 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16642080"/>
+          <a:ext cx="9311640" cy="3177540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20261580"/>
+          <a:ext cx="14631670" cy="6706235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4808,18 +4590,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4832,291 +4614,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="365760"/>
-          <a:ext cx="9311640" cy="3177540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>344805</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="327660" y="2407920"/>
-          <a:ext cx="2455545" cy="320675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>123190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3916680"/>
-          <a:ext cx="14631670" cy="6706870"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>85090</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11963400"/>
-          <a:ext cx="12886690" cy="6781165"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="19827240"/>
+          <a:off x="0" y="8986520"/>
           <a:ext cx="10104120" cy="7261860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5134,13 +4632,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>334645</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>90170</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5150,7 +4648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2278380" y="25587960"/>
+          <a:off x="2278380" y="14747240"/>
           <a:ext cx="6590665" cy="730250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5297,6 +4795,48 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1122680"/>
+          <a:ext cx="14090650" cy="6873875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5306,13 +4846,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>271</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5330,50 +4870,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="60426600"/>
+          <a:off x="0" y="49560480"/>
           <a:ext cx="10104120" cy="7261860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>85090</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>14605</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="182880"/>
-          <a:ext cx="12886690" cy="6781165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5407,7 +4905,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5428,343 +4926,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="14630400"/>
-          <a:ext cx="9311640" cy="3177540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>344805</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="327660" y="16672560"/>
-          <a:ext cx="2455545" cy="320675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>123190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="18181320"/>
-          <a:ext cx="14631670" cy="6706870"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542290</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="26045160"/>
-          <a:ext cx="11515090" cy="6782435"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542290</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="32811720"/>
-          <a:ext cx="11515090" cy="6782435"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>229870</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5775,14 +4947,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39761160"/>
+          <a:off x="0" y="28895040"/>
           <a:ext cx="13031470" cy="6706870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5800,13 +4972,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>229870</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>123190</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5817,14 +4989,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="46527720"/>
+          <a:off x="0" y="35661600"/>
           <a:ext cx="13031470" cy="6706870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5842,13 +5014,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>252730</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5859,14 +5031,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="53477160"/>
+          <a:off x="7620" y="42611040"/>
           <a:ext cx="12437110" cy="6402070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5884,13 +5056,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>356</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>113030</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -5900,7 +5072,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2087880" y="65265300"/>
+          <a:off x="2087880" y="54399180"/>
           <a:ext cx="6690360" cy="943610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6047,41 +5219,36 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8229600"/>
-          <a:ext cx="9311640" cy="3177540"/>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="14090650" cy="6873875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6097,191 +5264,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>344805</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="矩形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="327660" y="10271760"/>
-          <a:ext cx="2455545" cy="320675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>123190</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 1"/>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11780520"/>
-          <a:ext cx="14631670" cy="6706870"/>
+          <a:off x="0" y="15179040"/>
+          <a:ext cx="14090650" cy="6873875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6294,6 +5303,53 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495935</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>99695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22128480"/>
+          <a:ext cx="7201535" cy="6317615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -6315,7 +5371,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6756,7 +5812,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N361"/>
+  <dimension ref="A1:N301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6764,175 +5820,801 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:5">
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1"/>
+    <row r="4" s="2" customFormat="1"/>
+    <row r="5" s="2" customFormat="1"/>
+    <row r="6" s="2" customFormat="1"/>
+    <row r="7" s="2" customFormat="1"/>
+    <row r="8" s="2" customFormat="1"/>
+    <row r="9" s="2" customFormat="1"/>
+    <row r="10" s="2" customFormat="1"/>
+    <row r="11" s="2" customFormat="1"/>
+    <row r="12" s="2" customFormat="1"/>
+    <row r="13" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1"/>
+    <row r="15" s="2" customFormat="1"/>
+    <row r="16" s="2" customFormat="1"/>
+    <row r="17" s="2" customFormat="1" ht="20.4" spans="1:1">
+      <c r="A17" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1"/>
+    <row r="19" s="2" customFormat="1"/>
+    <row r="20" s="2" customFormat="1"/>
+    <row r="21" s="2" customFormat="1"/>
+    <row r="22" s="2" customFormat="1"/>
+    <row r="23" s="2" customFormat="1"/>
+    <row r="24" s="2" customFormat="1"/>
+    <row r="25" s="2" customFormat="1"/>
+    <row r="26" s="2" customFormat="1"/>
+    <row r="27" s="2" customFormat="1"/>
+    <row r="28" s="2" customFormat="1"/>
+    <row r="29" s="2" customFormat="1"/>
+    <row r="30" s="2" customFormat="1"/>
+    <row r="31" s="2" customFormat="1"/>
+    <row r="32" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1"/>
+    <row r="34" s="2" customFormat="1"/>
+    <row r="35" s="2" customFormat="1"/>
+    <row r="36" s="2" customFormat="1"/>
+    <row r="37" s="2" customFormat="1"/>
+    <row r="38" s="2" customFormat="1"/>
+    <row r="39" s="2" customFormat="1" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="2:2">
+      <c r="B40" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="2:2">
+      <c r="B42" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1"/>
+    <row r="44" s="11" customFormat="1" spans="1:1">
+      <c r="A44" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:7">
+      <c r="A45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1"/>
+    <row r="47" s="2" customFormat="1"/>
+    <row r="48" s="2" customFormat="1"/>
+    <row r="49" s="2" customFormat="1"/>
+    <row r="50" s="2" customFormat="1"/>
+    <row r="51" s="2" customFormat="1"/>
+    <row r="52" s="2" customFormat="1"/>
+    <row r="53" s="2" customFormat="1"/>
+    <row r="54" s="2" customFormat="1"/>
+    <row r="55" s="2" customFormat="1"/>
+    <row r="56" s="2" customFormat="1"/>
+    <row r="57" s="2" customFormat="1"/>
+    <row r="58" s="2" customFormat="1"/>
+    <row r="59" s="2" customFormat="1"/>
+    <row r="60" s="2" customFormat="1"/>
+    <row r="61" s="2" customFormat="1" ht="20.4" spans="1:1">
+      <c r="A61" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1"/>
+    <row r="63" s="2" customFormat="1"/>
+    <row r="64" s="2" customFormat="1"/>
+    <row r="65" s="2" customFormat="1"/>
+    <row r="66" s="2" customFormat="1"/>
+    <row r="67" s="2" customFormat="1"/>
+    <row r="68" s="2" customFormat="1"/>
+    <row r="69" s="2" customFormat="1"/>
+    <row r="70" s="2" customFormat="1"/>
+    <row r="71" s="2" customFormat="1"/>
+    <row r="72" s="2" customFormat="1"/>
+    <row r="73" s="2" customFormat="1"/>
+    <row r="74" s="2" customFormat="1"/>
+    <row r="75" s="2" customFormat="1"/>
+    <row r="76" s="2" customFormat="1"/>
+    <row r="77" s="2" customFormat="1"/>
+    <row r="78" s="2" customFormat="1"/>
+    <row r="79" s="2" customFormat="1"/>
+    <row r="80" s="2" customFormat="1"/>
+    <row r="81" s="2" customFormat="1"/>
+    <row r="82" s="2" customFormat="1"/>
+    <row r="83" s="2" customFormat="1" spans="1:1">
+      <c r="A83" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="2:2">
+      <c r="B84" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:1">
+      <c r="A85" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="2:2">
+      <c r="B86" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" s="2" customFormat="1" spans="1:1">
+      <c r="A87" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" s="2" customFormat="1" spans="2:2">
+      <c r="B88" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="1"/>
+    <row r="90" s="11" customFormat="1" spans="1:1">
+      <c r="A90" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" s="2" customFormat="1" spans="1:1">
+      <c r="A91" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" s="2" customFormat="1"/>
+    <row r="93" s="2" customFormat="1"/>
+    <row r="94" s="2" customFormat="1"/>
+    <row r="95" s="2" customFormat="1"/>
+    <row r="96" s="2" customFormat="1"/>
+    <row r="97" s="2" customFormat="1"/>
+    <row r="98" s="2" customFormat="1"/>
+    <row r="99" s="2" customFormat="1"/>
+    <row r="100" s="2" customFormat="1"/>
+    <row r="101" s="2" customFormat="1"/>
+    <row r="102" s="2" customFormat="1"/>
+    <row r="103" s="2" customFormat="1"/>
+    <row r="104" s="2" customFormat="1"/>
+    <row r="105" s="2" customFormat="1"/>
+    <row r="106" s="2" customFormat="1"/>
+    <row r="107" s="2" customFormat="1"/>
+    <row r="108" s="2" customFormat="1"/>
+    <row r="109" s="2" customFormat="1"/>
+    <row r="110" s="2" customFormat="1"/>
+    <row r="111" s="2" customFormat="1"/>
+    <row r="112" s="2" customFormat="1"/>
+    <row r="113" s="2" customFormat="1"/>
+    <row r="114" s="2" customFormat="1"/>
+    <row r="115" s="2" customFormat="1"/>
+    <row r="116" s="2" customFormat="1"/>
+    <row r="117" s="2" customFormat="1"/>
+    <row r="118" s="2" customFormat="1"/>
+    <row r="119" s="2" customFormat="1"/>
+    <row r="120" s="2" customFormat="1"/>
+    <row r="121" s="2" customFormat="1"/>
+    <row r="122" s="2" customFormat="1"/>
+    <row r="123" s="2" customFormat="1" spans="1:1">
+      <c r="A123" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" s="2" customFormat="1" spans="1:1">
+      <c r="A124" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" s="2" customFormat="1"/>
+    <row r="126" s="2" customFormat="1"/>
+    <row r="127" s="2" customFormat="1"/>
+    <row r="128" s="2" customFormat="1"/>
+    <row r="129" s="2" customFormat="1"/>
+    <row r="130" s="2" customFormat="1"/>
+    <row r="131" s="2" customFormat="1"/>
+    <row r="132" s="2" customFormat="1"/>
+    <row r="133" s="2" customFormat="1"/>
+    <row r="134" s="2" customFormat="1"/>
+    <row r="135" s="2" customFormat="1"/>
+    <row r="136" s="2" customFormat="1"/>
+    <row r="137" s="2" customFormat="1"/>
+    <row r="138" s="2" customFormat="1"/>
+    <row r="139" s="2" customFormat="1"/>
+    <row r="140" s="2" customFormat="1"/>
+    <row r="141" s="2" customFormat="1"/>
+    <row r="142" s="2" customFormat="1"/>
+    <row r="143" s="2" customFormat="1" spans="1:1">
+      <c r="A143" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" s="2" customFormat="1"/>
+    <row r="145" s="2" customFormat="1"/>
+    <row r="146" s="2" customFormat="1"/>
+    <row r="147" s="2" customFormat="1"/>
+    <row r="148" s="2" customFormat="1"/>
+    <row r="149" s="2" customFormat="1"/>
+    <row r="150" s="2" customFormat="1"/>
+    <row r="151" s="2" customFormat="1"/>
+    <row r="152" s="2" customFormat="1"/>
+    <row r="153" s="2" customFormat="1"/>
+    <row r="154" s="2" customFormat="1"/>
+    <row r="155" s="2" customFormat="1"/>
+    <row r="156" s="2" customFormat="1"/>
+    <row r="157" s="2" customFormat="1"/>
+    <row r="158" s="2" customFormat="1"/>
+    <row r="159" s="2" customFormat="1"/>
+    <row r="160" s="2" customFormat="1"/>
+    <row r="161" s="2" customFormat="1"/>
+    <row r="162" s="2" customFormat="1"/>
+    <row r="163" s="2" customFormat="1"/>
+    <row r="164" s="2" customFormat="1"/>
+    <row r="165" s="2" customFormat="1"/>
+    <row r="166" s="2" customFormat="1"/>
+    <row r="167" s="2" customFormat="1"/>
+    <row r="168" s="2" customFormat="1"/>
+    <row r="169" s="2" customFormat="1"/>
+    <row r="170" s="2" customFormat="1"/>
+    <row r="171" s="2" customFormat="1"/>
+    <row r="172" s="2" customFormat="1"/>
+    <row r="173" s="2" customFormat="1"/>
+    <row r="174" s="2" customFormat="1"/>
+    <row r="175" s="2" customFormat="1" spans="1:1">
+      <c r="A175" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" s="2" customFormat="1" spans="2:2">
+      <c r="B176" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2"/>
+      <c r="B178" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" s="2" customFormat="1" spans="1:1">
+      <c r="A182" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" s="2" customFormat="1"/>
+    <row r="184" s="2" customFormat="1" spans="1:1">
+      <c r="A184" s="13"/>
+    </row>
+    <row r="185" s="2" customFormat="1" spans="1:1">
+      <c r="A185" s="13"/>
+    </row>
+    <row r="186" s="2" customFormat="1" spans="1:1">
+      <c r="A186" s="13"/>
+    </row>
+    <row r="187" s="2" customFormat="1" spans="1:1">
+      <c r="A187" s="13"/>
+    </row>
+    <row r="188" s="2" customFormat="1" spans="1:1">
+      <c r="A188" s="13"/>
+    </row>
+    <row r="189" s="2" customFormat="1" spans="1:1">
+      <c r="A189" s="13"/>
+    </row>
+    <row r="190" s="2" customFormat="1" spans="1:1">
+      <c r="A190" s="13"/>
+    </row>
+    <row r="191" s="2" customFormat="1" spans="1:1">
+      <c r="A191" s="13"/>
+    </row>
+    <row r="192" s="2" customFormat="1" spans="1:1">
+      <c r="A192" s="13"/>
+    </row>
+    <row r="193" s="2" customFormat="1" spans="1:1">
+      <c r="A193" s="13"/>
+    </row>
+    <row r="194" s="2" customFormat="1" spans="1:1">
+      <c r="A194" s="13"/>
+    </row>
+    <row r="195" s="2" customFormat="1" spans="1:1">
+      <c r="A195" s="13"/>
+    </row>
+    <row r="196" s="2" customFormat="1" spans="1:1">
+      <c r="A196" s="13"/>
+    </row>
+    <row r="197" s="2" customFormat="1" spans="1:1">
+      <c r="A197" s="13"/>
+    </row>
+    <row r="198" s="2" customFormat="1" spans="1:1">
+      <c r="A198" s="13"/>
+    </row>
+    <row r="199" s="2" customFormat="1" spans="1:1">
+      <c r="A199" s="13"/>
+    </row>
+    <row r="200" s="2" customFormat="1" spans="1:1">
+      <c r="A200" s="13"/>
+    </row>
+    <row r="201" s="2" customFormat="1" spans="1:1">
+      <c r="A201" s="13"/>
+    </row>
+    <row r="202" s="2" customFormat="1" spans="1:1">
+      <c r="A202" s="13"/>
+    </row>
+    <row r="203" s="2" customFormat="1" spans="1:1">
+      <c r="A203" s="13"/>
+    </row>
+    <row r="204" s="2" customFormat="1" spans="1:1">
+      <c r="A204" s="13"/>
+    </row>
+    <row r="205" s="2" customFormat="1" spans="1:1">
+      <c r="A205" s="13"/>
+    </row>
+    <row r="206" s="2" customFormat="1" spans="1:1">
+      <c r="A206" s="13"/>
+    </row>
+    <row r="207" s="2" customFormat="1" spans="1:1">
+      <c r="A207" s="13"/>
+    </row>
+    <row r="208" s="2" customFormat="1" spans="1:1">
+      <c r="A208" s="13"/>
+    </row>
+    <row r="209" s="2" customFormat="1" spans="1:1">
+      <c r="A209" s="13"/>
+    </row>
+    <row r="210" s="2" customFormat="1" spans="1:1">
+      <c r="A210" s="13"/>
+    </row>
+    <row r="211" s="2" customFormat="1" spans="1:1">
+      <c r="A211" s="13"/>
+    </row>
+    <row r="212" s="2" customFormat="1" spans="1:1">
+      <c r="A212" s="13"/>
+    </row>
+    <row r="213" s="2" customFormat="1" spans="1:6">
+      <c r="A213" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" s="2" customFormat="1" spans="1:1">
+      <c r="A214" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" s="2" customFormat="1"/>
+    <row r="216" s="2" customFormat="1"/>
+    <row r="217" s="2" customFormat="1"/>
+    <row r="218" s="2" customFormat="1"/>
+    <row r="219" s="2" customFormat="1"/>
+    <row r="220" s="2" customFormat="1"/>
+    <row r="221" s="2" customFormat="1"/>
+    <row r="222" s="2" customFormat="1"/>
+    <row r="223" s="2" customFormat="1"/>
+    <row r="224" s="2" customFormat="1"/>
+    <row r="225" s="2" customFormat="1"/>
+    <row r="226" s="2" customFormat="1"/>
+    <row r="227" s="2" customFormat="1"/>
+    <row r="228" s="2" customFormat="1"/>
+    <row r="229" s="2" customFormat="1"/>
+    <row r="230" s="2" customFormat="1"/>
+    <row r="231" s="2" customFormat="1"/>
+    <row r="232" s="2" customFormat="1"/>
+    <row r="233" s="2" customFormat="1"/>
+    <row r="234" s="2" customFormat="1" spans="1:1">
+      <c r="A234" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" s="2" customFormat="1" spans="1:4">
+      <c r="A235" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236" s="2" customFormat="1" spans="1:1">
+      <c r="A236" s="13"/>
+    </row>
+    <row r="237" s="2" customFormat="1" spans="1:6">
+      <c r="A237" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" s="2" customFormat="1" spans="1:1">
+      <c r="A238" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" s="2" customFormat="1"/>
+    <row r="240" s="2" customFormat="1"/>
+    <row r="241" s="2" customFormat="1"/>
+    <row r="242" s="2" customFormat="1"/>
+    <row r="243" s="2" customFormat="1"/>
+    <row r="244" s="2" customFormat="1"/>
+    <row r="245" s="2" customFormat="1"/>
+    <row r="246" s="2" customFormat="1"/>
+    <row r="247" s="2" customFormat="1"/>
+    <row r="248" s="2" customFormat="1"/>
+    <row r="249" s="2" customFormat="1"/>
+    <row r="250" s="2" customFormat="1"/>
+    <row r="251" s="2" customFormat="1"/>
+    <row r="252" s="2" customFormat="1"/>
+    <row r="253" s="2" customFormat="1"/>
+    <row r="254" s="2" customFormat="1"/>
+    <row r="255" s="2" customFormat="1"/>
+    <row r="256" s="2" customFormat="1"/>
+    <row r="257" s="2" customFormat="1"/>
+    <row r="258" s="2" customFormat="1"/>
+    <row r="259" s="2" customFormat="1"/>
+    <row r="260" s="2" customFormat="1" spans="1:1">
+      <c r="A260" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="261" s="2" customFormat="1"/>
+    <row r="262" s="2" customFormat="1"/>
+    <row r="263" s="2" customFormat="1"/>
+    <row r="264" s="2" customFormat="1"/>
+    <row r="265" s="2" customFormat="1"/>
+    <row r="266" s="2" customFormat="1"/>
+    <row r="267" s="2" customFormat="1"/>
+    <row r="268" s="2" customFormat="1"/>
+    <row r="269" s="2" customFormat="1"/>
+    <row r="270" s="2" customFormat="1"/>
+    <row r="271" s="2" customFormat="1"/>
+    <row r="272" s="2" customFormat="1"/>
+    <row r="273" s="2" customFormat="1"/>
+    <row r="274" s="2" customFormat="1"/>
+    <row r="275" s="2" customFormat="1"/>
+    <row r="276" s="2" customFormat="1"/>
+    <row r="277" s="2" customFormat="1"/>
+    <row r="278" s="2" customFormat="1"/>
+    <row r="279" s="2" customFormat="1"/>
+    <row r="280" s="2" customFormat="1"/>
+    <row r="281" s="2" customFormat="1"/>
+    <row r="282" s="2" customFormat="1"/>
+    <row r="283" s="2" customFormat="1"/>
+    <row r="284" s="2" customFormat="1"/>
+    <row r="285" s="2" customFormat="1"/>
+    <row r="286" s="2" customFormat="1"/>
+    <row r="287" s="2" customFormat="1"/>
+    <row r="288" s="2" customFormat="1"/>
+    <row r="289" s="2" customFormat="1"/>
+    <row r="290" s="2" customFormat="1"/>
+    <row r="291" s="2" customFormat="1"/>
+    <row r="292" s="2" customFormat="1"/>
+    <row r="293" s="2" customFormat="1"/>
+    <row r="294" s="2" customFormat="1" spans="1:1">
+      <c r="A294" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="295" s="2" customFormat="1" ht="15" spans="1:14">
+      <c r="A295" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N295" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="296" s="2" customFormat="1" ht="15" spans="1:1">
+      <c r="A296" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="298" s="2" customFormat="1" spans="1:1">
+      <c r="A298" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" s="2" customFormat="1" spans="2:2">
+      <c r="B299" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="300" s="2" customFormat="1" spans="1:1">
+      <c r="A300" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" s="2" customFormat="1" spans="2:2">
+      <c r="B301" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" s="10" customFormat="1" spans="1:1">
+      <c r="A90" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" ht="25.8" spans="1:1">
+      <c r="A110" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2"/>
+      <c r="B150" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="2" customHeight="1"/>
+    <row r="2" s="2" customFormat="1" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1"/>
-    <row r="4" s="3" customFormat="1"/>
-    <row r="5" s="3" customFormat="1"/>
-    <row r="6" s="3" customFormat="1"/>
-    <row r="7" s="3" customFormat="1"/>
-    <row r="8" s="3" customFormat="1"/>
-    <row r="9" s="3" customFormat="1"/>
-    <row r="10" s="3" customFormat="1"/>
-    <row r="11" s="3" customFormat="1"/>
-    <row r="12" s="3" customFormat="1"/>
-    <row r="13" s="3" customFormat="1"/>
-    <row r="14" s="3" customFormat="1"/>
-    <row r="15" s="3" customFormat="1"/>
-    <row r="16" s="3" customFormat="1"/>
-    <row r="17" s="3" customFormat="1" ht="20.4" spans="1:1">
-      <c r="A17" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1"/>
-    <row r="19" s="3" customFormat="1"/>
-    <row r="20" s="3" customFormat="1"/>
-    <row r="21" s="3" customFormat="1"/>
-    <row r="22" s="3" customFormat="1"/>
-    <row r="23" s="3" customFormat="1"/>
-    <row r="24" s="3" customFormat="1"/>
-    <row r="25" s="3" customFormat="1"/>
-    <row r="26" s="3" customFormat="1"/>
-    <row r="27" s="3" customFormat="1"/>
-    <row r="28" s="3" customFormat="1"/>
-    <row r="29" s="3" customFormat="1"/>
-    <row r="30" s="3" customFormat="1"/>
-    <row r="31" s="3" customFormat="1"/>
-    <row r="32" s="3" customFormat="1"/>
-    <row r="33" s="3" customFormat="1"/>
-    <row r="34" s="3" customFormat="1"/>
-    <row r="35" s="3" customFormat="1"/>
-    <row r="36" s="3" customFormat="1"/>
-    <row r="37" s="3" customFormat="1"/>
-    <row r="38" s="3" customFormat="1"/>
-    <row r="39" s="3" customFormat="1" spans="1:1">
-      <c r="A39" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="2:2">
-      <c r="B40" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:1">
-      <c r="A41" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="2:2">
+      <c r="B3" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:1">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" spans="2:2">
-      <c r="B42" s="6" t="s">
+    <row r="5" s="2" customFormat="1" spans="2:2">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1"/>
-    <row r="44" s="2" customFormat="1" spans="1:1">
-      <c r="A44" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:7">
-      <c r="A45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" s="3" customFormat="1"/>
-    <row r="47" s="3" customFormat="1"/>
-    <row r="48" s="3" customFormat="1"/>
-    <row r="49" s="3" customFormat="1"/>
-    <row r="50" s="3" customFormat="1"/>
-    <row r="51" s="3" customFormat="1"/>
-    <row r="52" s="3" customFormat="1"/>
-    <row r="53" s="3" customFormat="1"/>
-    <row r="54" s="3" customFormat="1"/>
-    <row r="55" s="3" customFormat="1"/>
-    <row r="56" s="3" customFormat="1"/>
-    <row r="57" s="3" customFormat="1"/>
-    <row r="58" s="3" customFormat="1"/>
-    <row r="59" s="3" customFormat="1"/>
-    <row r="60" s="3" customFormat="1"/>
-    <row r="61" s="3" customFormat="1" ht="20.4" spans="1:1">
-      <c r="A61" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" s="3" customFormat="1"/>
-    <row r="63" s="3" customFormat="1"/>
-    <row r="64" s="3" customFormat="1"/>
-    <row r="65" s="3" customFormat="1"/>
-    <row r="66" s="3" customFormat="1"/>
-    <row r="67" s="3" customFormat="1"/>
-    <row r="68" s="3" customFormat="1"/>
-    <row r="69" s="3" customFormat="1"/>
-    <row r="70" s="3" customFormat="1"/>
-    <row r="71" s="3" customFormat="1"/>
-    <row r="72" s="3" customFormat="1"/>
-    <row r="73" s="3" customFormat="1"/>
-    <row r="74" s="3" customFormat="1"/>
-    <row r="75" s="3" customFormat="1"/>
-    <row r="76" s="3" customFormat="1"/>
-    <row r="77" s="3" customFormat="1"/>
-    <row r="78" s="3" customFormat="1"/>
-    <row r="79" s="3" customFormat="1"/>
-    <row r="80" s="3" customFormat="1"/>
-    <row r="81" s="3" customFormat="1"/>
-    <row r="82" s="3" customFormat="1"/>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:1">
+      <c r="A46" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="2:2">
+      <c r="B47" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E271"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="1:1">
+      <c r="A79" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="2:2">
+      <c r="B80" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="83" s="3" customFormat="1" spans="1:1">
-      <c r="A83" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="2:2">
-      <c r="B84" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" s="3" customFormat="1" spans="1:1">
-      <c r="A85" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" s="3" customFormat="1" spans="2:2">
-      <c r="B86" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" s="3" customFormat="1" spans="1:1">
-      <c r="A87" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" s="3" customFormat="1" spans="2:2">
-      <c r="B88" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
+      <c r="A83" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" s="3" customFormat="1"/>
+    <row r="85" s="3" customFormat="1"/>
+    <row r="86" s="3" customFormat="1"/>
+    <row r="87" s="3" customFormat="1"/>
+    <row r="88" s="3" customFormat="1"/>
     <row r="89" s="3" customFormat="1"/>
-    <row r="90" s="2" customFormat="1" spans="1:1">
-      <c r="A90" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" s="3" customFormat="1" spans="1:1">
-      <c r="A91" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="90" s="3" customFormat="1"/>
+    <row r="91" s="3" customFormat="1"/>
     <row r="92" s="3" customFormat="1"/>
     <row r="93" s="3" customFormat="1"/>
     <row r="94" s="3" customFormat="1"/>
@@ -6964,16 +6646,8 @@
     <row r="120" s="3" customFormat="1"/>
     <row r="121" s="3" customFormat="1"/>
     <row r="122" s="3" customFormat="1"/>
-    <row r="123" s="3" customFormat="1" spans="1:1">
-      <c r="A123" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" s="3" customFormat="1" spans="1:1">
-      <c r="A124" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="123" s="3" customFormat="1"/>
+    <row r="124" s="3" customFormat="1"/>
     <row r="125" s="3" customFormat="1"/>
     <row r="126" s="3" customFormat="1"/>
     <row r="127" s="3" customFormat="1"/>
@@ -6992,11 +6666,7 @@
     <row r="140" s="3" customFormat="1"/>
     <row r="141" s="3" customFormat="1"/>
     <row r="142" s="3" customFormat="1"/>
-    <row r="143" s="3" customFormat="1" spans="1:1">
-      <c r="A143" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="143" s="3" customFormat="1"/>
     <row r="144" s="3" customFormat="1"/>
     <row r="145" s="3" customFormat="1"/>
     <row r="146" s="3" customFormat="1"/>
@@ -7011,7 +6681,11 @@
     <row r="155" s="3" customFormat="1"/>
     <row r="156" s="3" customFormat="1"/>
     <row r="157" s="3" customFormat="1"/>
-    <row r="158" s="3" customFormat="1"/>
+    <row r="158" s="3" customFormat="1" spans="1:1">
+      <c r="A158" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="159" s="3" customFormat="1"/>
     <row r="160" s="3" customFormat="1"/>
     <row r="161" s="3" customFormat="1"/>
@@ -7028,144 +6702,46 @@
     <row r="172" s="3" customFormat="1"/>
     <row r="173" s="3" customFormat="1"/>
     <row r="174" s="3" customFormat="1"/>
-    <row r="175" s="3" customFormat="1" spans="1:1">
-      <c r="A175" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" s="3" customFormat="1" spans="2:2">
-      <c r="B176" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B177" s="3"/>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="3"/>
-      <c r="B178" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="182" s="3" customFormat="1" spans="1:1">
-      <c r="A182" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="175" s="3" customFormat="1"/>
+    <row r="176" s="3" customFormat="1"/>
+    <row r="177" s="3" customFormat="1"/>
+    <row r="178" s="3" customFormat="1"/>
+    <row r="179" s="3" customFormat="1"/>
+    <row r="180" s="3" customFormat="1"/>
+    <row r="181" s="3" customFormat="1"/>
+    <row r="182" s="3" customFormat="1"/>
     <row r="183" s="3" customFormat="1"/>
-    <row r="184" s="3" customFormat="1" spans="1:1">
-      <c r="A184" s="5"/>
-    </row>
-    <row r="185" s="3" customFormat="1" spans="1:1">
-      <c r="A185" s="5"/>
-    </row>
-    <row r="186" s="3" customFormat="1" spans="1:1">
-      <c r="A186" s="5"/>
-    </row>
-    <row r="187" s="3" customFormat="1" spans="1:1">
-      <c r="A187" s="5"/>
-    </row>
-    <row r="188" s="3" customFormat="1" spans="1:1">
-      <c r="A188" s="5"/>
-    </row>
-    <row r="189" s="3" customFormat="1" spans="1:1">
-      <c r="A189" s="5"/>
-    </row>
-    <row r="190" s="3" customFormat="1" spans="1:1">
-      <c r="A190" s="5"/>
-    </row>
-    <row r="191" s="3" customFormat="1" spans="1:1">
-      <c r="A191" s="5"/>
-    </row>
-    <row r="192" s="3" customFormat="1" spans="1:1">
-      <c r="A192" s="5"/>
-    </row>
-    <row r="193" s="3" customFormat="1" spans="1:1">
-      <c r="A193" s="5"/>
-    </row>
-    <row r="194" s="3" customFormat="1" spans="1:1">
-      <c r="A194" s="5"/>
-    </row>
-    <row r="195" s="3" customFormat="1" spans="1:1">
-      <c r="A195" s="5"/>
-    </row>
-    <row r="196" s="3" customFormat="1" spans="1:1">
-      <c r="A196" s="5"/>
-    </row>
-    <row r="197" s="3" customFormat="1" spans="1:1">
-      <c r="A197" s="5"/>
-    </row>
-    <row r="198" s="3" customFormat="1" spans="1:1">
-      <c r="A198" s="5"/>
-    </row>
-    <row r="199" s="3" customFormat="1" spans="1:1">
-      <c r="A199" s="5"/>
-    </row>
-    <row r="200" s="3" customFormat="1" spans="1:1">
-      <c r="A200" s="5"/>
-    </row>
-    <row r="201" s="3" customFormat="1" spans="1:1">
-      <c r="A201" s="5"/>
-    </row>
-    <row r="202" s="3" customFormat="1" spans="1:1">
-      <c r="A202" s="5"/>
-    </row>
-    <row r="203" s="3" customFormat="1" spans="1:1">
-      <c r="A203" s="5"/>
-    </row>
-    <row r="204" s="3" customFormat="1" spans="1:1">
-      <c r="A204" s="5"/>
-    </row>
-    <row r="205" s="3" customFormat="1" spans="1:1">
-      <c r="A205" s="5"/>
-    </row>
-    <row r="206" s="3" customFormat="1" spans="1:1">
-      <c r="A206" s="5"/>
-    </row>
-    <row r="207" s="3" customFormat="1" spans="1:1">
-      <c r="A207" s="5"/>
-    </row>
-    <row r="208" s="3" customFormat="1" spans="1:1">
-      <c r="A208" s="5"/>
-    </row>
-    <row r="209" s="3" customFormat="1" spans="1:1">
-      <c r="A209" s="5"/>
-    </row>
-    <row r="210" s="3" customFormat="1" spans="1:1">
-      <c r="A210" s="5"/>
-    </row>
-    <row r="211" s="3" customFormat="1" spans="1:1">
-      <c r="A211" s="5"/>
-    </row>
-    <row r="212" s="3" customFormat="1" spans="1:1">
-      <c r="A212" s="5"/>
-    </row>
-    <row r="213" s="3" customFormat="1" spans="1:6">
-      <c r="A213" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F213" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="214" s="3" customFormat="1" spans="1:1">
-      <c r="A214" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
+    <row r="184" s="3" customFormat="1"/>
+    <row r="185" s="3" customFormat="1"/>
+    <row r="186" s="3" customFormat="1"/>
+    <row r="187" s="3" customFormat="1"/>
+    <row r="188" s="3" customFormat="1"/>
+    <row r="189" s="3" customFormat="1"/>
+    <row r="190" s="3" customFormat="1"/>
+    <row r="191" s="3" customFormat="1"/>
+    <row r="192" s="3" customFormat="1"/>
+    <row r="193" s="3" customFormat="1"/>
+    <row r="194" s="3" customFormat="1"/>
+    <row r="195" s="3" customFormat="1"/>
+    <row r="196" s="3" customFormat="1"/>
+    <row r="197" s="3" customFormat="1"/>
+    <row r="198" s="3" customFormat="1"/>
+    <row r="199" s="3" customFormat="1"/>
+    <row r="200" s="3" customFormat="1"/>
+    <row r="201" s="3" customFormat="1"/>
+    <row r="202" s="3" customFormat="1"/>
+    <row r="203" s="3" customFormat="1"/>
+    <row r="204" s="3" customFormat="1"/>
+    <row r="205" s="3" customFormat="1"/>
+    <row r="206" s="3" customFormat="1"/>
+    <row r="207" s="3" customFormat="1"/>
+    <row r="208" s="3" customFormat="1"/>
+    <row r="209" s="3" customFormat="1"/>
+    <row r="210" s="3" customFormat="1"/>
+    <row r="211" s="3" customFormat="1"/>
+    <row r="212" s="3" customFormat="1"/>
+    <row r="213" s="3" customFormat="1"/>
+    <row r="214" s="3" customFormat="1"/>
     <row r="215" s="3" customFormat="1"/>
     <row r="216" s="3" customFormat="1"/>
     <row r="217" s="3" customFormat="1"/>
@@ -7184,36 +6760,16 @@
     <row r="230" s="3" customFormat="1"/>
     <row r="231" s="3" customFormat="1"/>
     <row r="232" s="3" customFormat="1"/>
-    <row r="233" s="3" customFormat="1"/>
-    <row r="234" s="3" customFormat="1" spans="1:1">
-      <c r="A234" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="235" s="3" customFormat="1" spans="1:4">
-      <c r="A235" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="236" s="3" customFormat="1" spans="1:1">
-      <c r="A236" s="5"/>
-    </row>
-    <row r="237" s="3" customFormat="1" spans="1:6">
-      <c r="A237" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="238" s="3" customFormat="1" spans="1:1">
-      <c r="A238" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
+    <row r="233" s="3" customFormat="1" spans="1:1">
+      <c r="A233" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="234" s="3" customFormat="1"/>
+    <row r="235" s="3" customFormat="1"/>
+    <row r="236" s="3" customFormat="1"/>
+    <row r="237" s="3" customFormat="1"/>
+    <row r="238" s="3" customFormat="1"/>
     <row r="239" s="3" customFormat="1"/>
     <row r="240" s="3" customFormat="1"/>
     <row r="241" s="3" customFormat="1"/>
@@ -7235,11 +6791,7 @@
     <row r="257" s="3" customFormat="1"/>
     <row r="258" s="3" customFormat="1"/>
     <row r="259" s="3" customFormat="1"/>
-    <row r="260" s="3" customFormat="1" spans="1:1">
-      <c r="A260" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="260" s="3" customFormat="1"/>
     <row r="261" s="3" customFormat="1"/>
     <row r="262" s="3" customFormat="1"/>
     <row r="263" s="3" customFormat="1"/>
@@ -7249,532 +6801,13 @@
     <row r="267" s="3" customFormat="1"/>
     <row r="268" s="3" customFormat="1"/>
     <row r="269" s="3" customFormat="1"/>
-    <row r="270" s="3" customFormat="1"/>
-    <row r="271" s="3" customFormat="1"/>
-    <row r="272" s="3" customFormat="1"/>
-    <row r="273" s="3" customFormat="1"/>
-    <row r="274" s="3" customFormat="1"/>
-    <row r="275" s="3" customFormat="1"/>
-    <row r="276" s="3" customFormat="1"/>
-    <row r="277" s="3" customFormat="1"/>
-    <row r="278" s="3" customFormat="1"/>
-    <row r="279" s="3" customFormat="1"/>
-    <row r="280" s="3" customFormat="1"/>
-    <row r="281" s="3" customFormat="1"/>
-    <row r="282" s="3" customFormat="1"/>
-    <row r="283" s="3" customFormat="1"/>
-    <row r="284" s="3" customFormat="1"/>
-    <row r="285" s="3" customFormat="1"/>
-    <row r="286" s="3" customFormat="1"/>
-    <row r="287" s="3" customFormat="1"/>
-    <row r="288" s="3" customFormat="1"/>
-    <row r="289" s="3" customFormat="1"/>
-    <row r="290" s="3" customFormat="1"/>
-    <row r="291" s="3" customFormat="1"/>
-    <row r="292" s="3" customFormat="1"/>
-    <row r="293" s="3" customFormat="1"/>
-    <row r="294" s="3" customFormat="1" spans="1:1">
-      <c r="A294" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="295" s="3" customFormat="1" ht="15" spans="1:14">
-      <c r="A295" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H295" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N295" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="296" s="3" customFormat="1" ht="15" spans="1:1">
-      <c r="A296" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="299" s="2" customFormat="1" spans="1:1">
-      <c r="A299" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
-      <c r="A300" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I300" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="319" s="3" customFormat="1" ht="20.4" spans="1:1">
-      <c r="A319" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="358" s="3" customFormat="1" spans="1:1">
-      <c r="A358" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="359" s="3" customFormat="1" spans="2:2">
-      <c r="B359" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="360" s="3" customFormat="1" spans="1:1">
-      <c r="A360" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="361" s="3" customFormat="1" spans="2:2">
-      <c r="B361" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I150"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="20.4" spans="1:1">
-      <c r="A21" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="1:1">
-      <c r="A60" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="2:2">
-      <c r="B61" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="1:1">
-      <c r="A62" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="2:2">
-      <c r="B63" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" s="3" customFormat="1" spans="1:1">
-      <c r="A104" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" s="3" customFormat="1" spans="2:2">
-      <c r="B105" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I330"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="1" spans="1:1">
-      <c r="A79" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="99" s="3" customFormat="1" ht="20.4" spans="1:1">
-      <c r="A99" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="138" s="3" customFormat="1" spans="1:1">
-      <c r="A138" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" s="3" customFormat="1" spans="2:2">
-      <c r="B139" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" spans="1:1">
-      <c r="A141" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="142" s="9" customFormat="1" spans="1:1">
-      <c r="A142" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" s="9" customFormat="1"/>
-    <row r="144" s="9" customFormat="1"/>
-    <row r="145" s="9" customFormat="1"/>
-    <row r="146" s="9" customFormat="1"/>
-    <row r="147" s="9" customFormat="1"/>
-    <row r="148" s="9" customFormat="1"/>
-    <row r="149" s="9" customFormat="1"/>
-    <row r="150" s="9" customFormat="1"/>
-    <row r="151" s="9" customFormat="1"/>
-    <row r="152" s="9" customFormat="1"/>
-    <row r="153" s="9" customFormat="1"/>
-    <row r="154" s="9" customFormat="1"/>
-    <row r="155" s="9" customFormat="1"/>
-    <row r="156" s="9" customFormat="1"/>
-    <row r="157" s="9" customFormat="1"/>
-    <row r="158" s="9" customFormat="1"/>
-    <row r="159" s="9" customFormat="1"/>
-    <row r="160" s="9" customFormat="1"/>
-    <row r="161" s="9" customFormat="1"/>
-    <row r="162" s="9" customFormat="1"/>
-    <row r="163" s="9" customFormat="1"/>
-    <row r="164" s="9" customFormat="1"/>
-    <row r="165" s="9" customFormat="1"/>
-    <row r="166" s="9" customFormat="1"/>
-    <row r="167" s="9" customFormat="1"/>
-    <row r="168" s="9" customFormat="1"/>
-    <row r="169" s="9" customFormat="1"/>
-    <row r="170" s="9" customFormat="1"/>
-    <row r="171" s="9" customFormat="1"/>
-    <row r="172" s="9" customFormat="1"/>
-    <row r="173" s="9" customFormat="1"/>
-    <row r="174" s="9" customFormat="1"/>
-    <row r="175" s="9" customFormat="1"/>
-    <row r="176" s="9" customFormat="1"/>
-    <row r="177" s="9" customFormat="1"/>
-    <row r="178" s="9" customFormat="1"/>
-    <row r="179" s="9" customFormat="1"/>
-    <row r="180" s="9" customFormat="1"/>
-    <row r="181" s="9" customFormat="1"/>
-    <row r="182" s="9" customFormat="1"/>
-    <row r="183" s="9" customFormat="1"/>
-    <row r="184" s="9" customFormat="1"/>
-    <row r="185" s="9" customFormat="1"/>
-    <row r="186" s="9" customFormat="1"/>
-    <row r="187" s="9" customFormat="1"/>
-    <row r="188" s="9" customFormat="1"/>
-    <row r="189" s="9" customFormat="1"/>
-    <row r="190" s="9" customFormat="1"/>
-    <row r="191" s="9" customFormat="1"/>
-    <row r="192" s="9" customFormat="1"/>
-    <row r="193" s="9" customFormat="1"/>
-    <row r="194" s="9" customFormat="1"/>
-    <row r="195" s="9" customFormat="1"/>
-    <row r="196" s="9" customFormat="1"/>
-    <row r="197" s="9" customFormat="1"/>
-    <row r="198" s="9" customFormat="1"/>
-    <row r="199" s="9" customFormat="1"/>
-    <row r="200" s="9" customFormat="1"/>
-    <row r="201" s="9" customFormat="1"/>
-    <row r="202" s="9" customFormat="1"/>
-    <row r="203" s="9" customFormat="1"/>
-    <row r="204" s="9" customFormat="1"/>
-    <row r="205" s="9" customFormat="1"/>
-    <row r="206" s="9" customFormat="1"/>
-    <row r="207" s="9" customFormat="1"/>
-    <row r="208" s="9" customFormat="1"/>
-    <row r="209" s="9" customFormat="1"/>
-    <row r="210" s="9" customFormat="1"/>
-    <row r="211" s="9" customFormat="1"/>
-    <row r="212" s="9" customFormat="1"/>
-    <row r="213" s="9" customFormat="1"/>
-    <row r="214" s="9" customFormat="1"/>
-    <row r="215" s="9" customFormat="1"/>
-    <row r="216" s="9" customFormat="1"/>
-    <row r="217" s="9" customFormat="1" spans="1:1">
-      <c r="A217" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="218" s="9" customFormat="1"/>
-    <row r="219" s="9" customFormat="1"/>
-    <row r="220" s="9" customFormat="1"/>
-    <row r="221" s="9" customFormat="1"/>
-    <row r="222" s="9" customFormat="1"/>
-    <row r="223" s="9" customFormat="1"/>
-    <row r="224" s="9" customFormat="1"/>
-    <row r="225" s="9" customFormat="1"/>
-    <row r="226" s="9" customFormat="1"/>
-    <row r="227" s="9" customFormat="1"/>
-    <row r="228" s="9" customFormat="1"/>
-    <row r="229" s="9" customFormat="1"/>
-    <row r="230" s="9" customFormat="1"/>
-    <row r="231" s="9" customFormat="1"/>
-    <row r="232" s="9" customFormat="1"/>
-    <row r="233" s="9" customFormat="1"/>
-    <row r="234" s="9" customFormat="1"/>
-    <row r="235" s="9" customFormat="1"/>
-    <row r="236" s="9" customFormat="1"/>
-    <row r="237" s="9" customFormat="1"/>
-    <row r="238" s="9" customFormat="1"/>
-    <row r="239" s="9" customFormat="1"/>
-    <row r="240" s="9" customFormat="1"/>
-    <row r="241" s="9" customFormat="1"/>
-    <row r="242" s="9" customFormat="1"/>
-    <row r="243" s="9" customFormat="1"/>
-    <row r="244" s="9" customFormat="1"/>
-    <row r="245" s="9" customFormat="1"/>
-    <row r="246" s="9" customFormat="1"/>
-    <row r="247" s="9" customFormat="1"/>
-    <row r="248" s="9" customFormat="1"/>
-    <row r="249" s="9" customFormat="1"/>
-    <row r="250" s="9" customFormat="1"/>
-    <row r="251" s="9" customFormat="1"/>
-    <row r="252" s="9" customFormat="1"/>
-    <row r="253" s="9" customFormat="1"/>
-    <row r="254" s="9" customFormat="1"/>
-    <row r="255" s="9" customFormat="1"/>
-    <row r="256" s="9" customFormat="1"/>
-    <row r="257" s="9" customFormat="1"/>
-    <row r="258" s="9" customFormat="1"/>
-    <row r="259" s="9" customFormat="1"/>
-    <row r="260" s="9" customFormat="1"/>
-    <row r="261" s="9" customFormat="1"/>
-    <row r="262" s="9" customFormat="1"/>
-    <row r="263" s="9" customFormat="1"/>
-    <row r="264" s="9" customFormat="1"/>
-    <row r="265" s="9" customFormat="1"/>
-    <row r="266" s="9" customFormat="1"/>
-    <row r="267" s="9" customFormat="1"/>
-    <row r="268" s="9" customFormat="1"/>
-    <row r="269" s="9" customFormat="1"/>
-    <row r="270" s="9" customFormat="1"/>
-    <row r="271" s="9" customFormat="1"/>
-    <row r="272" s="9" customFormat="1"/>
-    <row r="273" s="9" customFormat="1"/>
-    <row r="274" s="9" customFormat="1"/>
-    <row r="275" s="9" customFormat="1"/>
-    <row r="276" s="9" customFormat="1"/>
-    <row r="277" s="9" customFormat="1"/>
-    <row r="278" s="9" customFormat="1"/>
-    <row r="279" s="9" customFormat="1"/>
-    <row r="280" s="9" customFormat="1"/>
-    <row r="281" s="9" customFormat="1"/>
-    <row r="282" s="9" customFormat="1"/>
-    <row r="283" s="9" customFormat="1"/>
-    <row r="284" s="9" customFormat="1"/>
-    <row r="285" s="9" customFormat="1"/>
-    <row r="286" s="9" customFormat="1"/>
-    <row r="287" s="9" customFormat="1"/>
-    <row r="288" s="9" customFormat="1"/>
-    <row r="289" s="9" customFormat="1"/>
-    <row r="290" s="9" customFormat="1"/>
-    <row r="291" s="9" customFormat="1"/>
-    <row r="292" s="9" customFormat="1" spans="1:1">
-      <c r="A292" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="293" s="9" customFormat="1"/>
-    <row r="294" s="9" customFormat="1"/>
-    <row r="295" s="9" customFormat="1"/>
-    <row r="296" s="9" customFormat="1"/>
-    <row r="297" s="9" customFormat="1"/>
-    <row r="298" s="9" customFormat="1"/>
-    <row r="299" s="9" customFormat="1"/>
-    <row r="300" s="9" customFormat="1"/>
-    <row r="301" s="9" customFormat="1"/>
-    <row r="302" s="9" customFormat="1"/>
-    <row r="303" s="9" customFormat="1"/>
-    <row r="304" s="9" customFormat="1"/>
-    <row r="305" s="9" customFormat="1"/>
-    <row r="306" s="9" customFormat="1"/>
-    <row r="307" s="9" customFormat="1"/>
-    <row r="308" s="9" customFormat="1"/>
-    <row r="309" s="9" customFormat="1"/>
-    <row r="310" s="9" customFormat="1"/>
-    <row r="311" s="9" customFormat="1"/>
-    <row r="312" s="9" customFormat="1"/>
-    <row r="313" s="9" customFormat="1"/>
-    <row r="314" s="9" customFormat="1"/>
-    <row r="315" s="9" customFormat="1"/>
-    <row r="316" s="9" customFormat="1"/>
-    <row r="317" s="9" customFormat="1"/>
-    <row r="318" s="9" customFormat="1"/>
-    <row r="319" s="9" customFormat="1"/>
-    <row r="320" s="9" customFormat="1"/>
-    <row r="321" s="9" customFormat="1"/>
-    <row r="322" s="9" customFormat="1"/>
-    <row r="323" s="9" customFormat="1"/>
-    <row r="324" s="9" customFormat="1"/>
-    <row r="325" s="9" customFormat="1"/>
-    <row r="326" s="9" customFormat="1"/>
-    <row r="327" s="9" customFormat="1"/>
-    <row r="328" s="9" customFormat="1"/>
-    <row r="329" s="1" customFormat="1" spans="1:1">
-      <c r="A329" s="1" t="s">
+    <row r="270" s="1" customFormat="1" spans="1:1">
+      <c r="A270" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="330" customFormat="1" spans="1:1">
-      <c r="A330" t="s">
+    <row r="271" customFormat="1" spans="1:1">
+      <c r="A271" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7788,13 +6821,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -7804,34 +6837,6 @@
     <row r="2" customFormat="1" spans="1:1">
       <c r="A2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="1:1">
-      <c r="A44" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" s="3" customFormat="1" ht="20.4" spans="1:1">
-      <c r="A64" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" s="3" customFormat="1" spans="1:1">
-      <c r="A103" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" s="3" customFormat="1" spans="2:2">
-      <c r="B104" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
